--- a/00_additional_data/PAR_sensors_logbook.xlsx
+++ b/00_additional_data/PAR_sensors_logbook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafat\Desktop\_Jonathan COS script\00_additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\python\_rafat_laser\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19158" windowHeight="6138"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,16 +360,16 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5234375" customWidth="1"/>
+    <col min="2" max="2" width="9.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -383,9 +383,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
-        <v>44256</v>
+        <v>44056</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -397,9 +397,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <v>44256</v>
+        <v>44056</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -411,34 +411,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
     </row>
   </sheetData>

--- a/00_additional_data/PAR_sensors_logbook.xlsx
+++ b/00_additional_data/PAR_sensors_logbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\python\_rafat_laser\00_additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Aerodyne-laser-chamber-fluxes\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -385,7 +385,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
-        <v>44056</v>
+        <v>44050</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <v>44056</v>
+        <v>44050</v>
       </c>
       <c r="B3">
         <v>4</v>
